--- a/tickets.xlsx
+++ b/tickets.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,24 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Claudia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erro ao gerar relatorio	
+</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tickets.xlsx
+++ b/tickets.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,36 +424,23 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Roberta</t>
+          <t>kleber</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cliente queria ajuda com cadastro de produtos
+          <t xml:space="preserve">ego
 </t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alta</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
-          <t>Claudia</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erro ao gerar relatorio	
-</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Alta</t>
+          <t>2024-05-13 15:16:29</t>
         </is>
       </c>
     </row>

--- a/tickets.xlsx
+++ b/tickets.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,23 +424,46 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>kleber</t>
+          <t>Roberto</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ego
+          <t xml:space="preserve">erro ao cadastrar cliente
 </t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>2024-05-13 15:16:29</t>
+          <t>2024-05-13 15:29:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Denis</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ajuda para cadastrar produto
+</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-05-13 15:29:35</t>
         </is>
       </c>
     </row>

--- a/tickets.xlsx
+++ b/tickets.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,29 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tom</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">erro de estoque		
+</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-05-14 13:44:04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tickets.xlsx
+++ b/tickets.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tickets" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,64 +428,18 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">erro ao cadastrar cliente
+          <t xml:space="preserve">Erro ao lançar pedido	
 </t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixa</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>2024-05-13 15:29:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Denis</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ajuda para cadastrar produto
-</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Baixa</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2024-05-13 15:29:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tom</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">erro de estoque		
-</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Baixa</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2024-05-14 13:44:04</t>
+          <t>2024-05-16 14:22:59</t>
         </is>
       </c>
     </row>

--- a/tickets.xlsx
+++ b/tickets.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,29 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Claudio</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Duvida referente a pedido 
+</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-05-16 15:44:24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tickets.xlsx
+++ b/tickets.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4455" yWindow="1200" windowWidth="15300" windowHeight="8925" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tickets" sheetId="1" state="visible" r:id="rId1"/>
@@ -428,18 +428,18 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erro ao lançar pedido	
+          <t xml:space="preserve">Duvida sobre relatorios	
 </t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Baixa</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>2024-05-16 14:22:59</t>
+          <t>20/05/2024 13:22:07</t>
         </is>
       </c>
     </row>
@@ -451,18 +451,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Duvida referente a pedido 
+          <t xml:space="preserve">Erro nota fiscal
 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-05-16 15:44:24</t>
+          <t>20/05/2024 13:22:21</t>
         </is>
       </c>
     </row>
